--- a/Docker/Docker指南.xlsx
+++ b/Docker/Docker指南.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2419430D-608A-4AD4-B099-66EA0B483CC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2985" yWindow="3630" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="3630" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="安装（AWS）" sheetId="2" r:id="rId1"/>
@@ -732,8 +731,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,7 +847,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -879,7 +878,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F714C-04AC-4CFB-9ABF-310CC898DB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F714C-04AC-4CFB-9ABF-310CC898DB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,7 +945,7 @@
         <xdr:cNvPr id="5" name="文本框 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7689CD-7F9F-40B6-BA29-9867A06E00B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E7689CD-7F9F-40B6-BA29-9867A06E00B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,7 +1012,7 @@
         <xdr:cNvPr id="6" name="文本框 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613C6E49-34B4-43F7-95B5-38A33D67E3E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{613C6E49-34B4-43F7-95B5-38A33D67E3E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1079,7 @@
         <xdr:cNvPr id="7" name="文本框 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C15EB9-41A7-47A3-95F1-0D1B4008F614}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87C15EB9-41A7-47A3-95F1-0D1B4008F614}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1138,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8C3A9B-D0B5-46A1-9ABE-F953846F65EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A8C3A9B-D0B5-46A1-9ABE-F953846F65EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1205,7 @@
         <xdr:cNvPr id="10" name="文本框 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009850ED-40E6-4449-BFA9-5D5668C9E669}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{009850ED-40E6-4449-BFA9-5D5668C9E669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1265,7 @@
         <xdr:cNvPr id="1025" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650B481D-326A-4963-879F-DDC999F2764D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{650B481D-326A-4963-879F-DDC999F2764D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1339,7 @@
         <xdr:cNvPr id="12" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E56CC5-827A-45F3-831F-98C1DD16C402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40E56CC5-827A-45F3-831F-98C1DD16C402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,6 +1395,55 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="7419975"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1419,7 +1467,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FC6420-EEB1-4DDD-B973-61E5B5997035}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45FC6420-EEB1-4DDD-B973-61E5B5997035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1516,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8465ED7C-4A5B-4ED4-9B23-B901C8BD1D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8465ED7C-4A5B-4ED4-9B23-B901C8BD1D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,46 +1807,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1810,29 +1858,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1845,26 +1893,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1872,17 +1920,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1890,27 +1938,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1918,17 +1966,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1936,27 +1984,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1964,27 +2012,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1992,27 +2040,27 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2023,17 +2071,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2044,67 +2092,67 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -2112,12 +2160,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -2125,12 +2173,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -2138,77 +2186,77 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>55</v>
       </c>
@@ -2216,27 +2264,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -2244,7 +2292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -2252,12 +2300,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="3" t="s">
         <v>156</v>
       </c>
@@ -2265,12 +2313,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
@@ -2278,12 +2326,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="3" t="s">
         <v>77</v>
       </c>
@@ -2291,17 +2339,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="3" t="s">
         <v>100</v>
       </c>
@@ -2309,23 +2357,23 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" s="3" t="s">
         <v>108</v>
       </c>
@@ -2333,15 +2381,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" s="3" t="s">
         <v>81</v>
       </c>
@@ -2349,47 +2397,47 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>94</v>
       </c>
@@ -2402,82 +2450,82 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832114D5-6EF8-400A-85B2-7856E1143DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15">
       <c r="A12" s="4"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15">
       <c r="L33" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="14.25">
       <c r="A39" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="14.25">
       <c r="A40" s="5"/>
     </row>
   </sheetData>
@@ -2489,29 +2537,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2519,17 +2567,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -2537,12 +2585,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -2553,7 +2601,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -2561,7 +2609,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -2569,7 +2617,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -2577,7 +2625,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -2585,7 +2633,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -2593,7 +2641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -2601,7 +2649,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -2609,22 +2657,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -2638,54 +2686,54 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -2693,12 +2741,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>149</v>
       </c>
